--- a/dipl/данные.xlsx
+++ b/dipl/данные.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a539u\Desktop\dipl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a539u\source\repos\Dianoil\CensusGoods\dipl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="13" r:id="rId2"/>
-    <sheet name="Company" sheetId="3" r:id="rId3"/>
-    <sheet name="Product" sheetId="4" r:id="rId4"/>
-    <sheet name="Supply" sheetId="5" r:id="rId5"/>
-    <sheet name="SupplInfo" sheetId="6" r:id="rId6"/>
-    <sheet name="Sector" sheetId="7" r:id="rId7"/>
-    <sheet name="SectorProduct" sheetId="8" r:id="rId8"/>
-    <sheet name="typepayment" sheetId="9" r:id="rId9"/>
-    <sheet name="order" sheetId="10" r:id="rId10"/>
-    <sheet name="productinfo" sheetId="11" r:id="rId11"/>
-    <sheet name="orderinfo" sheetId="12" r:id="rId12"/>
+    <sheet name="ControlQuestion" sheetId="14" r:id="rId3"/>
+    <sheet name="Company" sheetId="3" r:id="rId4"/>
+    <sheet name="Product" sheetId="4" r:id="rId5"/>
+    <sheet name="Supply" sheetId="5" r:id="rId6"/>
+    <sheet name="SupplInfo" sheetId="6" r:id="rId7"/>
+    <sheet name="Sector" sheetId="7" r:id="rId8"/>
+    <sheet name="SectorProduct" sheetId="8" r:id="rId9"/>
+    <sheet name="typepayment" sheetId="9" r:id="rId10"/>
+    <sheet name="order" sheetId="10" r:id="rId11"/>
+    <sheet name="productinfo" sheetId="11" r:id="rId12"/>
+    <sheet name="orderinfo" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1059">
   <si>
     <t>id</t>
   </si>
@@ -3188,6 +3189,30 @@
   </si>
   <si>
     <t>В долг</t>
+  </si>
+  <si>
+    <t>idContrQuestion</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Кек</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Девичья фамилия матери</t>
+  </si>
+  <si>
+    <t>Кличка домашнего животного</t>
+  </si>
+  <si>
+    <t>Номер школы</t>
+  </si>
+  <si>
+    <t>Имя отца</t>
   </si>
 </sst>
 </file>
@@ -3268,7 +3293,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3289,6 +3314,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3573,7 +3602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4205,10 +4234,49 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4267,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11">
         <v>44331</v>
@@ -4281,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11">
         <v>44332</v>
@@ -4295,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11">
         <v>44333</v>
@@ -4309,7 +4377,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11">
         <v>44334</v>
@@ -4323,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="11">
         <v>44335</v>
@@ -4337,7 +4405,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" s="11">
         <v>44336</v>
@@ -4351,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11">
         <v>44337</v>
@@ -4365,7 +4433,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="11">
         <v>44338</v>
@@ -4379,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11">
         <v>44339</v>
@@ -4393,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11">
         <v>44340</v>
@@ -4407,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D14" s="11">
         <v>44341</v>
@@ -4421,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" s="11">
         <v>44342</v>
@@ -4435,7 +4503,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D16" s="11">
         <v>44343</v>
@@ -4449,7 +4517,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D17" s="11">
         <v>44344</v>
@@ -4463,7 +4531,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D18" s="11">
         <v>44345</v>
@@ -4477,7 +4545,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11">
         <v>44346</v>
@@ -4488,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -5606,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -5946,10 +6014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5960,7 +6028,7 @@
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5973,8 +6041,14 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5987,8 +6061,14 @@
       <c r="D2" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6001,8 +6081,14 @@
       <c r="D3" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6015,8 +6101,14 @@
       <c r="D4" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6029,8 +6121,14 @@
       <c r="D5" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6043,8 +6141,14 @@
       <c r="D6" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6057,8 +6161,14 @@
       <c r="D7" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6071,8 +6181,14 @@
       <c r="D8" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6085,8 +6201,14 @@
       <c r="D9" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6099,8 +6221,14 @@
       <c r="D10" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6113,8 +6241,14 @@
       <c r="D11" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6127,8 +6261,14 @@
       <c r="D12" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6141,8 +6281,14 @@
       <c r="D13" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6155,8 +6301,14 @@
       <c r="D14" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6169,8 +6321,14 @@
       <c r="D15" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6183,8 +6341,14 @@
       <c r="D16" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6197,8 +6361,14 @@
       <c r="D17" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6211,8 +6381,14 @@
       <c r="D18" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6225,8 +6401,14 @@
       <c r="D19" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6239,8 +6421,14 @@
       <c r="D20" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6253,8 +6441,14 @@
       <c r="D21" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6267,8 +6461,14 @@
       <c r="D22" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6281,8 +6481,14 @@
       <c r="D23" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6295,8 +6501,14 @@
       <c r="D24" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6309,8 +6521,14 @@
       <c r="D25" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6323,8 +6541,14 @@
       <c r="D26" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6337,8 +6561,14 @@
       <c r="D27" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6351,8 +6581,14 @@
       <c r="D28" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6365,8 +6601,14 @@
       <c r="D29" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6379,8 +6621,14 @@
       <c r="D30" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6393,8 +6641,14 @@
       <c r="D31" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6407,8 +6661,14 @@
       <c r="D32" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6421,8 +6681,14 @@
       <c r="D33" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6435,8 +6701,14 @@
       <c r="D34" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6449,8 +6721,14 @@
       <c r="D35" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6463,8 +6741,14 @@
       <c r="D36" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6477,8 +6761,14 @@
       <c r="D37" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6491,8 +6781,14 @@
       <c r="D38" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6505,8 +6801,14 @@
       <c r="D39" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6519,8 +6821,14 @@
       <c r="D40" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6533,8 +6841,14 @@
       <c r="D41" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6547,8 +6861,14 @@
       <c r="D42" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6561,8 +6881,14 @@
       <c r="D43" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6575,8 +6901,14 @@
       <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6589,8 +6921,14 @@
       <c r="D45" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6603,8 +6941,14 @@
       <c r="D46" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6617,8 +6961,14 @@
       <c r="D47" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6631,8 +6981,14 @@
       <c r="D48" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6645,8 +7001,14 @@
       <c r="D49" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6659,8 +7021,14 @@
       <c r="D50" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6673,8 +7041,14 @@
       <c r="D51" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6687,8 +7061,14 @@
       <c r="D52" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6701,8 +7081,14 @@
       <c r="D53" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6715,8 +7101,14 @@
       <c r="D54" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6729,8 +7121,14 @@
       <c r="D55" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6743,8 +7141,14 @@
       <c r="D56" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6757,8 +7161,14 @@
       <c r="D57" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6771,8 +7181,14 @@
       <c r="D58" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6785,8 +7201,14 @@
       <c r="D59" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6799,8 +7221,14 @@
       <c r="D60" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6813,8 +7241,14 @@
       <c r="D61" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6827,8 +7261,14 @@
       <c r="D62" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6841,8 +7281,14 @@
       <c r="D63" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6855,8 +7301,14 @@
       <c r="D64" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6869,8 +7321,14 @@
       <c r="D65" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6883,8 +7341,14 @@
       <c r="D66" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6897,8 +7361,14 @@
       <c r="D67" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6911,8 +7381,14 @@
       <c r="D68" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6925,8 +7401,14 @@
       <c r="D69" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6939,8 +7421,14 @@
       <c r="D70" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6953,8 +7441,14 @@
       <c r="D71" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6967,8 +7461,14 @@
       <c r="D72" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6981,8 +7481,14 @@
       <c r="D73" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6995,8 +7501,14 @@
       <c r="D74" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7009,8 +7521,14 @@
       <c r="D75" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7023,8 +7541,14 @@
       <c r="D76" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7037,8 +7561,14 @@
       <c r="D77" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7051,8 +7581,14 @@
       <c r="D78" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7065,8 +7601,14 @@
       <c r="D79" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7079,8 +7621,14 @@
       <c r="D80" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7093,8 +7641,14 @@
       <c r="D81" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7107,8 +7661,14 @@
       <c r="D82" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7121,8 +7681,14 @@
       <c r="D83" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7135,8 +7701,14 @@
       <c r="D84" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7149,8 +7721,14 @@
       <c r="D85" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7163,8 +7741,14 @@
       <c r="D86" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7177,8 +7761,14 @@
       <c r="D87" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7191,8 +7781,14 @@
       <c r="D88" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7205,8 +7801,14 @@
       <c r="D89" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7219,8 +7821,14 @@
       <c r="D90" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7233,8 +7841,14 @@
       <c r="D91" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7247,8 +7861,14 @@
       <c r="D92" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7261,8 +7881,14 @@
       <c r="D93" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7275,8 +7901,14 @@
       <c r="D94" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7289,8 +7921,14 @@
       <c r="D95" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7303,8 +7941,14 @@
       <c r="D96" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7317,8 +7961,14 @@
       <c r="D97" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7331,8 +7981,14 @@
       <c r="D98" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7345,8 +8001,14 @@
       <c r="D99" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7359,8 +8021,14 @@
       <c r="D100" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7372,6 +8040,12 @@
       </c>
       <c r="D101" s="2" t="s">
         <v>325</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -7380,6 +8054,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -10032,7 +10761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
@@ -11769,7 +12498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -12348,11 +13077,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F83" sqref="F83:F84"/>
     </sheetView>
   </sheetViews>
@@ -13777,7 +14506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -14058,11 +14787,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -15182,43 +15911,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dipl/данные.xlsx
+++ b/dipl/данные.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a539u\source\repos\Dianoil\CensusGoods\dipl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeppaPig\source\repos\Dianoil\CensusGoods\dipl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="13" r:id="rId2"/>
-    <sheet name="ControlQuestion" sheetId="14" r:id="rId3"/>
+    <sheet name="ControLQuestion" sheetId="14" r:id="rId3"/>
     <sheet name="Company" sheetId="3" r:id="rId4"/>
     <sheet name="Product" sheetId="4" r:id="rId5"/>
     <sheet name="Supply" sheetId="5" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1066">
   <si>
     <t>id</t>
   </si>
@@ -3191,28 +3191,49 @@
     <t>В долг</t>
   </si>
   <si>
-    <t>idContrQuestion</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Кек</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Почтовый индекс ваших родителей</t>
+  </si>
+  <si>
+    <t>Кличка домашнего животного</t>
   </si>
   <si>
     <t>Девичья фамилия матери</t>
   </si>
   <si>
-    <t>Кличка домашнего животного</t>
-  </si>
-  <si>
-    <t>Номер школы</t>
-  </si>
-  <si>
-    <t>Имя отца</t>
+    <t>Модель вашей первой машины</t>
+  </si>
+  <si>
+    <t>Любимый писатель</t>
+  </si>
+  <si>
+    <t>Профессия вашего дедушки</t>
+  </si>
+  <si>
+    <t>Valute</t>
+  </si>
+  <si>
+    <t>ContrQuestion</t>
+  </si>
+  <si>
+    <t>Anser</t>
+  </si>
+  <si>
+    <t>typemagaz</t>
+  </si>
+  <si>
+    <t>Барсик</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Тютчев</t>
+  </si>
+  <si>
+    <t>Киа</t>
+  </si>
+  <si>
+    <t>Электрик</t>
   </si>
 </sst>
 </file>
@@ -3293,7 +3314,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3314,10 +3335,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3603,15 +3620,15 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3619,7 +3636,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3627,7 +3644,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3635,7 +3652,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3643,7 +3660,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3651,7 +3668,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3659,7 +3676,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3675,7 +3692,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3683,7 +3700,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3691,7 +3708,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3699,7 +3716,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3715,7 +3732,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3723,7 +3740,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3731,7 +3748,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3739,7 +3756,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3747,7 +3764,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3755,7 +3772,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3763,7 +3780,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3779,7 +3796,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3787,7 +3804,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3803,7 +3820,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3811,7 +3828,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3827,7 +3844,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3835,7 +3852,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3843,7 +3860,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3851,7 +3868,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3859,7 +3876,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3875,7 +3892,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3883,7 +3900,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3891,7 +3908,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3899,7 +3916,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3915,7 +3932,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3923,7 +3940,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3931,7 +3948,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3939,7 +3956,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3947,7 +3964,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3955,7 +3972,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3963,7 +3980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3971,7 +3988,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3979,7 +3996,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3987,7 +4004,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3995,7 +4012,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4003,7 +4020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4011,7 +4028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4019,7 +4036,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4027,7 +4044,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4035,7 +4052,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4043,7 +4060,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4051,7 +4068,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4059,7 +4076,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4067,7 +4084,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4075,7 +4092,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4083,7 +4100,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4091,7 +4108,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4107,7 +4124,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4115,7 +4132,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4123,7 +4140,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4131,7 +4148,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4139,7 +4156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4147,7 +4164,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4155,7 +4172,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4163,7 +4180,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4171,7 +4188,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4179,7 +4196,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4187,7 +4204,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4195,7 +4212,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4203,7 +4220,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4211,7 +4228,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4219,7 +4236,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4240,9 +4257,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4258,7 +4275,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4276,16 +4293,16 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4299,7 +4316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4313,7 +4330,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4321,13 +4338,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="11">
         <v>44330</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4341,7 +4358,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4349,13 +4366,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="11">
         <v>44332</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4369,7 +4386,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4377,13 +4394,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="11">
         <v>44334</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4397,7 +4414,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4419,13 +4436,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="11">
         <v>44337</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4439,7 +4456,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4447,13 +4464,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11">
         <v>44339</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4467,7 +4484,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4475,13 +4492,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="11">
         <v>44341</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4495,7 +4512,7 @@
         <v>44342</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4503,13 +4520,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="11">
         <v>44343</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4523,7 +4540,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4531,13 +4548,13 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11">
         <v>44345</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4560,16 +4577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4591,535 +4608,535 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5130,7 +5147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5141,7 +5158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5152,7 +5169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5163,7 +5180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5185,7 +5202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5196,7 +5213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5207,7 +5224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5218,7 +5235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5229,7 +5246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5240,7 +5257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5251,7 +5268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5262,7 +5279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5273,7 +5290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5295,7 +5312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5306,7 +5323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5317,7 +5334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5328,7 +5345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5339,7 +5356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5350,7 +5367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5361,7 +5378,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5372,7 +5389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5383,7 +5400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5394,7 +5411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5405,7 +5422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5416,7 +5433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5427,7 +5444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5438,7 +5455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5449,7 +5466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5460,7 +5477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5471,7 +5488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5493,7 +5510,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5504,7 +5521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5515,7 +5532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5526,7 +5543,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5537,7 +5554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5559,7 +5576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5570,7 +5587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5581,7 +5598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5592,7 +5609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5603,7 +5620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5625,7 +5642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5647,7 +5664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5679,12 +5696,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5701,7 +5718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5718,7 +5735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5735,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5752,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5769,7 +5786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5786,7 +5803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5820,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5837,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5854,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5871,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5905,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5939,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5956,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5973,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5990,7 +6007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6014,21 +6031,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6041,14 +6058,8 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6061,14 +6072,8 @@
       <c r="D2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6081,14 +6086,8 @@
       <c r="D3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6101,14 +6100,8 @@
       <c r="D4" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6121,14 +6114,8 @@
       <c r="D5" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6141,14 +6128,8 @@
       <c r="D6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6161,14 +6142,8 @@
       <c r="D7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6181,14 +6156,8 @@
       <c r="D8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6201,14 +6170,8 @@
       <c r="D9" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6221,14 +6184,8 @@
       <c r="D10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6241,14 +6198,8 @@
       <c r="D11" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6261,14 +6212,8 @@
       <c r="D12" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6281,14 +6226,8 @@
       <c r="D13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6301,14 +6240,8 @@
       <c r="D14" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6321,14 +6254,8 @@
       <c r="D15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6341,14 +6268,8 @@
       <c r="D16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6361,14 +6282,8 @@
       <c r="D17" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6381,14 +6296,8 @@
       <c r="D18" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6401,14 +6310,8 @@
       <c r="D19" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6421,14 +6324,8 @@
       <c r="D20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6441,14 +6338,8 @@
       <c r="D21" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6461,14 +6352,8 @@
       <c r="D22" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6481,14 +6366,8 @@
       <c r="D23" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6501,14 +6380,8 @@
       <c r="D24" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6521,14 +6394,8 @@
       <c r="D25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6541,14 +6408,8 @@
       <c r="D26" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6561,14 +6422,8 @@
       <c r="D27" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6581,14 +6436,8 @@
       <c r="D28" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6601,14 +6450,8 @@
       <c r="D29" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6621,14 +6464,8 @@
       <c r="D30" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6641,14 +6478,8 @@
       <c r="D31" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6661,14 +6492,8 @@
       <c r="D32" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6681,14 +6506,8 @@
       <c r="D33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6701,14 +6520,8 @@
       <c r="D34" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6721,14 +6534,8 @@
       <c r="D35" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6741,14 +6548,8 @@
       <c r="D36" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6761,14 +6562,8 @@
       <c r="D37" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6781,14 +6576,8 @@
       <c r="D38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6801,14 +6590,8 @@
       <c r="D39" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6821,14 +6604,8 @@
       <c r="D40" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6841,14 +6618,8 @@
       <c r="D41" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6861,14 +6632,8 @@
       <c r="D42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6881,14 +6646,8 @@
       <c r="D43" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6901,14 +6660,8 @@
       <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6921,14 +6674,8 @@
       <c r="D45" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6941,14 +6688,8 @@
       <c r="D46" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6961,14 +6702,8 @@
       <c r="D47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6981,14 +6716,8 @@
       <c r="D48" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7001,14 +6730,8 @@
       <c r="D49" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7021,14 +6744,8 @@
       <c r="D50" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7041,14 +6758,8 @@
       <c r="D51" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7061,14 +6772,8 @@
       <c r="D52" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7081,14 +6786,8 @@
       <c r="D53" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7101,14 +6800,8 @@
       <c r="D54" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7121,14 +6814,8 @@
       <c r="D55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7141,14 +6828,8 @@
       <c r="D56" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7161,14 +6842,8 @@
       <c r="D57" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7181,14 +6856,8 @@
       <c r="D58" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7201,14 +6870,8 @@
       <c r="D59" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7221,14 +6884,8 @@
       <c r="D60" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7241,14 +6898,8 @@
       <c r="D61" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7261,14 +6912,8 @@
       <c r="D62" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7281,14 +6926,8 @@
       <c r="D63" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7301,14 +6940,8 @@
       <c r="D64" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7321,14 +6954,8 @@
       <c r="D65" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7341,14 +6968,8 @@
       <c r="D66" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7361,14 +6982,8 @@
       <c r="D67" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7381,14 +6996,8 @@
       <c r="D68" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7401,14 +7010,8 @@
       <c r="D69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7421,14 +7024,8 @@
       <c r="D70" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7441,14 +7038,8 @@
       <c r="D71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7461,14 +7052,8 @@
       <c r="D72" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7481,14 +7066,8 @@
       <c r="D73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7501,14 +7080,8 @@
       <c r="D74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7521,14 +7094,8 @@
       <c r="D75" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7541,14 +7108,8 @@
       <c r="D76" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7561,14 +7122,8 @@
       <c r="D77" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7581,14 +7136,8 @@
       <c r="D78" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7601,14 +7150,8 @@
       <c r="D79" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7621,14 +7164,8 @@
       <c r="D80" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7641,14 +7178,8 @@
       <c r="D81" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7661,14 +7192,8 @@
       <c r="D82" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7681,14 +7206,8 @@
       <c r="D83" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7701,14 +7220,8 @@
       <c r="D84" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7721,14 +7234,8 @@
       <c r="D85" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7741,14 +7248,8 @@
       <c r="D86" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7761,14 +7262,8 @@
       <c r="D87" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7781,14 +7276,8 @@
       <c r="D88" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7801,14 +7290,8 @@
       <c r="D89" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7821,14 +7304,8 @@
       <c r="D90" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7841,14 +7318,8 @@
       <c r="D91" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7861,14 +7332,8 @@
       <c r="D92" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7881,14 +7346,8 @@
       <c r="D93" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7901,14 +7360,8 @@
       <c r="D94" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7921,14 +7374,8 @@
       <c r="D95" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7941,14 +7388,8 @@
       <c r="D96" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7961,14 +7402,8 @@
       <c r="D97" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E97">
-        <v>4</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7981,14 +7416,8 @@
       <c r="D98" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8001,14 +7430,8 @@
       <c r="D99" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8021,14 +7444,8 @@
       <c r="D100" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8040,12 +7457,6 @@
       </c>
       <c r="D101" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -8055,52 +7466,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>1056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -8110,26 +7529,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="L101" sqref="A2:L101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="50.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="50.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="17.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8154,8 +7575,20 @@
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8180,8 +7613,20 @@
       <c r="H2" s="3" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8206,8 +7651,20 @@
       <c r="H3" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8232,8 +7689,20 @@
       <c r="H4" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8258,8 +7727,20 @@
       <c r="H5" s="3" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8284,8 +7765,20 @@
       <c r="H6" s="3" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8310,8 +7803,20 @@
       <c r="H7" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8336,8 +7841,20 @@
       <c r="H8" s="3" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8362,8 +7879,20 @@
       <c r="H9" s="3" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8388,8 +7917,20 @@
       <c r="H10" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8414,8 +7955,20 @@
       <c r="H11" s="3" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8440,8 +7993,20 @@
       <c r="H12" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8466,8 +8031,20 @@
       <c r="H13" s="3" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8492,8 +8069,20 @@
       <c r="H14" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8518,8 +8107,20 @@
       <c r="H15" s="3" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8544,8 +8145,20 @@
       <c r="H16" s="3" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8570,8 +8183,20 @@
       <c r="H17" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8596,8 +8221,20 @@
       <c r="H18" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -8622,8 +8259,20 @@
       <c r="H19" s="3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -8648,8 +8297,20 @@
       <c r="H20" s="3" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -8674,8 +8335,20 @@
       <c r="H21" s="3" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -8700,8 +8373,20 @@
       <c r="H22" s="3" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -8726,8 +8411,20 @@
       <c r="H23" s="3" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -8752,8 +8449,20 @@
       <c r="H24" s="3" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -8778,8 +8487,20 @@
       <c r="H25" s="3" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -8804,8 +8525,20 @@
       <c r="H26" s="3" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8830,8 +8563,20 @@
       <c r="H27" s="3" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8856,8 +8601,20 @@
       <c r="H28" s="3" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8882,8 +8639,20 @@
       <c r="H29" s="3" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="3">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8908,8 +8677,20 @@
       <c r="H30" s="3" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8934,8 +8715,20 @@
       <c r="H31" s="3" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>6</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -8960,8 +8753,20 @@
       <c r="H32" s="3" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -8986,8 +8791,20 @@
       <c r="H33" s="7" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="3">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -9012,8 +8829,20 @@
       <c r="H34" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -9038,8 +8867,20 @@
       <c r="H35" s="3" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -9064,8 +8905,20 @@
       <c r="H36" s="3" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -9090,8 +8943,20 @@
       <c r="H37" s="3" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="3">
+        <v>4</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -9116,8 +8981,20 @@
       <c r="H38" s="3" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -9142,8 +9019,20 @@
       <c r="H39" s="3" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -9168,8 +9057,20 @@
       <c r="H40" s="3" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -9194,8 +9095,20 @@
       <c r="H41" s="3" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="3">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -9220,8 +9133,20 @@
       <c r="H42" s="3" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -9246,8 +9171,20 @@
       <c r="H43" s="3" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -9272,8 +9209,20 @@
       <c r="H44" s="3" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="3">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -9298,8 +9247,20 @@
       <c r="H45" s="3" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="3">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -9324,8 +9285,20 @@
       <c r="H46" s="3" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -9350,8 +9323,20 @@
       <c r="H47" s="3" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="3">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -9376,8 +9361,20 @@
       <c r="H48" s="3" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="3">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -9402,8 +9399,20 @@
       <c r="H49" s="3" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="3">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -9428,8 +9437,20 @@
       <c r="H50" s="3" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -9454,8 +9475,20 @@
       <c r="H51" s="3" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -9480,8 +9513,20 @@
       <c r="H52" s="3" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="3">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -9506,8 +9551,20 @@
       <c r="H53" s="3" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="3">
+        <v>4</v>
+      </c>
+      <c r="J53" s="3">
+        <v>4</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -9532,8 +9589,20 @@
       <c r="H54" s="3" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -9558,8 +9627,20 @@
       <c r="H55" s="3" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>6</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -9584,8 +9665,20 @@
       <c r="H56" s="3" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="3">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -9610,8 +9703,20 @@
       <c r="H57" s="3" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="3">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -9636,8 +9741,20 @@
       <c r="H58" s="3" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -9662,8 +9779,20 @@
       <c r="H59" s="3" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="3">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -9688,8 +9817,20 @@
       <c r="H60" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="3">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -9714,8 +9855,20 @@
       <c r="H61" s="3" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="3">
+        <v>4</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -9740,8 +9893,20 @@
       <c r="H62" s="3" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -9766,8 +9931,20 @@
       <c r="H63" s="3" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -9792,8 +9969,20 @@
       <c r="H64" s="3" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="3">
+        <v>3</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -9818,8 +10007,20 @@
       <c r="H65" s="3" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="3">
+        <v>4</v>
+      </c>
+      <c r="J65" s="3">
+        <v>4</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -9844,8 +10045,20 @@
       <c r="H66" s="3" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -9870,8 +10083,20 @@
       <c r="H67" s="3" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="3">
+        <v>2</v>
+      </c>
+      <c r="J67" s="3">
+        <v>6</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -9896,8 +10121,20 @@
       <c r="H68" s="3" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="3">
+        <v>3</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -9922,8 +10159,20 @@
       <c r="H69" s="3" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="3">
+        <v>4</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -9948,8 +10197,20 @@
       <c r="H70" s="3" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -9974,8 +10235,20 @@
       <c r="H71" s="3" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="3">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -10000,8 +10273,20 @@
       <c r="H72" s="3" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="3">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -10026,8 +10311,20 @@
       <c r="H73" s="3" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="3">
+        <v>4</v>
+      </c>
+      <c r="J73" s="3">
+        <v>6</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -10052,8 +10349,20 @@
       <c r="H74" s="3" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -10078,8 +10387,20 @@
       <c r="H75" s="3" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -10104,8 +10425,20 @@
       <c r="H76" s="7" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I76" s="3">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -10130,8 +10463,20 @@
       <c r="H77" s="3" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="3">
+        <v>4</v>
+      </c>
+      <c r="J77" s="3">
+        <v>4</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -10156,8 +10501,20 @@
       <c r="H78" s="3" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3">
+        <v>5</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -10182,8 +10539,20 @@
       <c r="H79" s="3" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I79" s="3">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>6</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -10208,8 +10577,20 @@
       <c r="H80" s="3" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I80" s="3">
+        <v>3</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -10234,8 +10615,20 @@
       <c r="H81" s="3" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="3">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -10260,8 +10653,20 @@
       <c r="H82" s="3" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I82" s="3">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -10286,8 +10691,20 @@
       <c r="H83" s="3" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -10312,8 +10729,20 @@
       <c r="H84" s="3" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I84" s="3">
+        <v>3</v>
+      </c>
+      <c r="J84" s="3">
+        <v>5</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -10338,8 +10767,20 @@
       <c r="H85" s="3" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I85" s="3">
+        <v>4</v>
+      </c>
+      <c r="J85" s="3">
+        <v>6</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -10364,8 +10805,20 @@
       <c r="H86" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -10390,8 +10843,20 @@
       <c r="H87" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I87" s="3">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -10416,8 +10881,20 @@
       <c r="H88" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="3">
+        <v>3</v>
+      </c>
+      <c r="J88" s="3">
+        <v>3</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -10442,8 +10919,20 @@
       <c r="H89" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I89" s="3">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -10468,8 +10957,20 @@
       <c r="H90" s="3" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3">
+        <v>5</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -10494,8 +10995,20 @@
       <c r="H91" s="3" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>6</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -10520,8 +11033,20 @@
       <c r="H92" s="3" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I92" s="3">
+        <v>3</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -10546,8 +11071,20 @@
       <c r="H93" s="3" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I93" s="3">
+        <v>4</v>
+      </c>
+      <c r="J93" s="3">
+        <v>2</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -10572,8 +11109,20 @@
       <c r="H94" s="3" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -10598,8 +11147,20 @@
       <c r="H95" s="3" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I95" s="3">
+        <v>2</v>
+      </c>
+      <c r="J95" s="3">
+        <v>4</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -10624,8 +11185,20 @@
       <c r="H96" s="3" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I96" s="3">
+        <v>3</v>
+      </c>
+      <c r="J96" s="3">
+        <v>5</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -10650,8 +11223,20 @@
       <c r="H97" s="3" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I97" s="3">
+        <v>4</v>
+      </c>
+      <c r="J97" s="3">
+        <v>6</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -10676,8 +11261,20 @@
       <c r="H98" s="3" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1</v>
+      </c>
+      <c r="K98" s="3">
+        <v>111345</v>
+      </c>
+      <c r="L98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -10702,8 +11299,20 @@
       <c r="H99" s="3" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I99" s="3">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>2</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -10728,8 +11337,20 @@
       <c r="H100" s="3" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I100" s="3">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -10753,6 +11374,18 @@
       </c>
       <c r="H101" s="3" t="s">
         <v>803</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10765,18 +11398,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10793,7 +11426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10810,7 +11443,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10827,7 +11460,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10844,7 +11477,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10861,7 +11494,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10878,7 +11511,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10895,7 +11528,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10912,7 +11545,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10929,7 +11562,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10946,7 +11579,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10963,7 +11596,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10980,7 +11613,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10997,7 +11630,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11014,7 +11647,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11031,7 +11664,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11048,7 +11681,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11065,7 +11698,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11082,7 +11715,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11099,7 +11732,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11116,7 +11749,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11133,7 +11766,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11150,7 +11783,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11167,7 +11800,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11184,7 +11817,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11201,7 +11834,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11218,7 +11851,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11235,7 +11868,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11252,7 +11885,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11269,7 +11902,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11286,7 +11919,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11303,7 +11936,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11320,7 +11953,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11337,7 +11970,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11354,7 +11987,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11371,7 +12004,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11388,7 +12021,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11405,7 +12038,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11422,7 +12055,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11439,7 +12072,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11456,7 +12089,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11473,7 +12106,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11490,7 +12123,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11507,7 +12140,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11524,7 +12157,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11541,7 +12174,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11558,7 +12191,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11575,7 +12208,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11592,7 +12225,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11609,7 +12242,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11626,7 +12259,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11643,7 +12276,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11660,7 +12293,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11677,7 +12310,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11694,7 +12327,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11711,7 +12344,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11728,7 +12361,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11745,7 +12378,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11762,7 +12395,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11779,7 +12412,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11796,7 +12429,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11813,7 +12446,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11830,7 +12463,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11847,7 +12480,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11864,7 +12497,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11881,7 +12514,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11898,7 +12531,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11915,7 +12548,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11932,7 +12565,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11949,7 +12582,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11966,7 +12599,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11983,7 +12616,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12000,7 +12633,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12017,7 +12650,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12034,7 +12667,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12051,7 +12684,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12068,7 +12701,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12085,7 +12718,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12102,7 +12735,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12119,7 +12752,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12136,7 +12769,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12153,7 +12786,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12170,7 +12803,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12187,7 +12820,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12204,7 +12837,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12221,7 +12854,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12238,7 +12871,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12255,7 +12888,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12272,7 +12905,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12289,7 +12922,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12306,7 +12939,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12323,7 +12956,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12340,7 +12973,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12357,7 +12990,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12374,7 +13007,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12391,7 +13024,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12408,7 +13041,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12425,7 +13058,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12442,7 +13075,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12459,7 +13092,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12476,7 +13109,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12503,15 +13136,15 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+      <selection activeCell="A2" sqref="A2:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12522,7 +13155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12533,7 +13166,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12544,7 +13177,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12555,7 +13188,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12566,7 +13199,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12577,7 +13210,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12588,7 +13221,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12599,7 +13232,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12610,7 +13243,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12621,7 +13254,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12632,7 +13265,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12643,7 +13276,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12654,7 +13287,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12665,7 +13298,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12676,7 +13309,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12687,7 +13320,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12698,7 +13331,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12709,7 +13342,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12720,7 +13353,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12731,7 +13364,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12742,7 +13375,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12753,7 +13386,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12764,7 +13397,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12775,7 +13408,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12786,7 +13419,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12797,7 +13430,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12808,7 +13441,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12819,7 +13452,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12830,7 +13463,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12841,7 +13474,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12852,7 +13485,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12863,7 +13496,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12874,7 +13507,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12885,7 +13518,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12896,7 +13529,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12907,7 +13540,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12918,7 +13551,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12929,7 +13562,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12940,7 +13573,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12951,7 +13584,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12962,7 +13595,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12973,7 +13606,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12984,7 +13617,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12995,7 +13628,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13006,7 +13639,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13017,7 +13650,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13028,7 +13661,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13039,7 +13672,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13050,7 +13683,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13061,7 +13694,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13082,12 +13715,12 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F83" sqref="F83:F84"/>
+      <selection activeCell="A2" sqref="A2:D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13101,7 +13734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13115,7 +13748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13129,7 +13762,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13143,7 +13776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13157,7 +13790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13171,7 +13804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13185,7 +13818,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13199,7 +13832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13213,7 +13846,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13227,7 +13860,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13241,7 +13874,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13255,7 +13888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13269,7 +13902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13283,7 +13916,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13297,7 +13930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13311,7 +13944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13325,7 +13958,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13339,7 +13972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13353,7 +13986,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13367,7 +14000,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13381,7 +14014,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13395,7 +14028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13409,7 +14042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13423,7 +14056,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13437,7 +14070,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13451,7 +14084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13465,7 +14098,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13479,7 +14112,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13493,7 +14126,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13507,7 +14140,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13521,7 +14154,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13535,7 +14168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13549,7 +14182,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13563,7 +14196,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13577,7 +14210,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13591,7 +14224,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13605,7 +14238,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13619,7 +14252,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13633,7 +14266,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13647,7 +14280,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13661,7 +14294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13675,7 +14308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13689,7 +14322,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13703,7 +14336,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13717,7 +14350,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13731,7 +14364,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13745,7 +14378,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13759,7 +14392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13773,7 +14406,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13787,7 +14420,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13801,7 +14434,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13815,7 +14448,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13829,7 +14462,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13843,7 +14476,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13857,7 +14490,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13871,7 +14504,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13885,7 +14518,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13899,7 +14532,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13913,7 +14546,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13927,7 +14560,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13941,7 +14574,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13955,7 +14588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13969,7 +14602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13983,7 +14616,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13997,7 +14630,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14011,7 +14644,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14025,7 +14658,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14039,7 +14672,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14053,7 +14686,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14067,7 +14700,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14081,7 +14714,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14095,7 +14728,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14109,7 +14742,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14123,7 +14756,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14137,7 +14770,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14151,7 +14784,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14165,7 +14798,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14179,7 +14812,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14193,7 +14826,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14207,7 +14840,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14221,7 +14854,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14235,7 +14868,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14249,7 +14882,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14263,7 +14896,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14277,7 +14910,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14291,7 +14924,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14305,7 +14938,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14319,7 +14952,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14333,7 +14966,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14347,7 +14980,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14361,7 +14994,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14375,7 +15008,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -14389,7 +15022,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14403,7 +15036,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14417,7 +15050,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14431,7 +15064,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14445,7 +15078,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14459,7 +15092,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14473,7 +15106,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14487,7 +15120,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14511,12 +15144,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14530,7 +15163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14544,7 +15177,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14558,7 +15191,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14572,7 +15205,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14586,7 +15219,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14600,7 +15233,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14614,7 +15247,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14628,7 +15261,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14642,7 +15275,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14656,7 +15289,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14670,7 +15303,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14684,7 +15317,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14698,7 +15331,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14712,7 +15345,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14726,7 +15359,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14740,7 +15373,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14754,7 +15387,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14768,7 +15401,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14792,12 +15425,12 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="A2" sqref="A2:C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14808,7 +15441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14819,7 +15452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14830,7 +15463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14841,7 +15474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14852,7 +15485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14863,7 +15496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14874,7 +15507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14885,7 +15518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14896,7 +15529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14907,7 +15540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14918,7 +15551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14929,7 +15562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14940,7 +15573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14951,7 +15584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14962,7 +15595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14973,7 +15606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14984,7 +15617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14995,7 +15628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15006,7 +15639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15017,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15028,7 +15661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15039,7 +15672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15050,7 +15683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15061,7 +15694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15072,7 +15705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15083,7 +15716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15094,7 +15727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15105,7 +15738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15116,7 +15749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15127,7 +15760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15138,7 +15771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15149,7 +15782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15160,7 +15793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15171,7 +15804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15182,7 +15815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15193,7 +15826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15204,7 +15837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15215,7 +15848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15226,7 +15859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15237,7 +15870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15248,7 +15881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15259,7 +15892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15270,7 +15903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15281,7 +15914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15292,7 +15925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15303,7 +15936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15314,7 +15947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15325,7 +15958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15336,7 +15969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15347,7 +15980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15358,7 +15991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15369,7 +16002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15380,7 +16013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15391,7 +16024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15402,7 +16035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15413,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15424,7 +16057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15435,7 +16068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15446,7 +16079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15457,7 +16090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15468,7 +16101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15479,7 +16112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15490,7 +16123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -15501,7 +16134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -15512,7 +16145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -15523,7 +16156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -15534,7 +16167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -15545,7 +16178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -15556,7 +16189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -15567,7 +16200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -15578,7 +16211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -15589,7 +16222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -15600,7 +16233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -15611,7 +16244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -15622,7 +16255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -15633,7 +16266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -15644,7 +16277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -15655,7 +16288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15666,7 +16299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -15677,7 +16310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15688,7 +16321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15699,7 +16332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15710,7 +16343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15721,7 +16354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15732,7 +16365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15743,7 +16376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15754,7 +16387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15765,7 +16398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15776,7 +16409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15787,7 +16420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15798,7 +16431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15809,7 +16442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15820,7 +16453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15831,7 +16464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15842,7 +16475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15853,7 +16486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15864,7 +16497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15875,7 +16508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15886,7 +16519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15897,7 +16530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>

--- a/dipl/данные.xlsx
+++ b/dipl/данные.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeppaPig\source\repos\Dianoil\CensusGoods\dipl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a539u\source\repos\Dianoil\CensusGoods\dipl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="13" r:id="rId2"/>
-    <sheet name="ControLQuestion" sheetId="14" r:id="rId3"/>
+    <sheet name="ControlQuestion" sheetId="14" r:id="rId3"/>
     <sheet name="Company" sheetId="3" r:id="rId4"/>
     <sheet name="Product" sheetId="4" r:id="rId5"/>
     <sheet name="Supply" sheetId="5" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1059">
   <si>
     <t>id</t>
   </si>
@@ -3191,49 +3191,28 @@
     <t>В долг</t>
   </si>
   <si>
-    <t>Почтовый индекс ваших родителей</t>
+    <t>idContrQuestion</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Кек</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Девичья фамилия матери</t>
   </si>
   <si>
     <t>Кличка домашнего животного</t>
   </si>
   <si>
-    <t>Девичья фамилия матери</t>
-  </si>
-  <si>
-    <t>Модель вашей первой машины</t>
-  </si>
-  <si>
-    <t>Любимый писатель</t>
-  </si>
-  <si>
-    <t>Профессия вашего дедушки</t>
-  </si>
-  <si>
-    <t>Valute</t>
-  </si>
-  <si>
-    <t>ContrQuestion</t>
-  </si>
-  <si>
-    <t>Anser</t>
-  </si>
-  <si>
-    <t>typemagaz</t>
-  </si>
-  <si>
-    <t>Барсик</t>
-  </si>
-  <si>
-    <t>Иванова</t>
-  </si>
-  <si>
-    <t>Тютчев</t>
-  </si>
-  <si>
-    <t>Киа</t>
-  </si>
-  <si>
-    <t>Электрик</t>
+    <t>Номер школы</t>
+  </si>
+  <si>
+    <t>Имя отца</t>
   </si>
 </sst>
 </file>
@@ -3314,7 +3293,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3335,6 +3314,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3620,15 +3603,15 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3619,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3644,7 +3627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3652,7 +3635,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3660,7 +3643,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3668,7 +3651,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3676,7 +3659,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3684,7 +3667,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3692,7 +3675,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3700,7 +3683,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3708,7 +3691,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3716,7 +3699,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3724,7 +3707,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3732,7 +3715,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3740,7 +3723,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3748,7 +3731,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3756,7 +3739,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3764,7 +3747,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3772,7 +3755,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3780,7 +3763,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3788,7 +3771,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3796,7 +3779,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3804,7 +3787,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3812,7 +3795,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3820,7 +3803,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3828,7 +3811,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3836,7 +3819,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3844,7 +3827,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3852,7 +3835,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3860,7 +3843,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3868,7 +3851,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3876,7 +3859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3884,7 +3867,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3892,7 +3875,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3900,7 +3883,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3908,7 +3891,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3916,7 +3899,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3924,7 +3907,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3932,7 +3915,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3940,7 +3923,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3948,7 +3931,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3956,7 +3939,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3964,7 +3947,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3972,7 +3955,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3980,7 +3963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3988,7 +3971,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3996,7 +3979,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4004,7 +3987,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4012,7 +3995,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4020,7 +4003,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4028,7 +4011,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4036,7 +4019,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4044,7 +4027,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4052,7 +4035,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4060,7 +4043,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4068,7 +4051,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4076,7 +4059,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4084,7 +4067,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4092,7 +4075,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4100,7 +4083,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4108,7 +4091,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4116,7 +4099,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4124,7 +4107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4132,7 +4115,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4140,7 +4123,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4148,7 +4131,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4156,7 +4139,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4164,7 +4147,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4172,7 +4155,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4180,7 +4163,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4188,7 +4171,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4196,7 +4179,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4204,7 +4187,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4212,7 +4195,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4220,7 +4203,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4228,7 +4211,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4236,7 +4219,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4257,9 +4240,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4275,7 +4258,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4293,16 +4276,16 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4330,7 +4313,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4338,13 +4321,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11">
         <v>44330</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4358,7 +4341,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4366,13 +4349,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11">
         <v>44332</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4386,7 +4369,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4394,13 +4377,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11">
         <v>44334</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4414,7 +4397,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4428,7 +4411,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4436,13 +4419,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11">
         <v>44337</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4456,7 +4439,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4464,13 +4447,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11">
         <v>44339</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4484,7 +4467,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4492,13 +4475,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="11">
         <v>44341</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4512,7 +4495,7 @@
         <v>44342</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4520,13 +4503,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="11">
         <v>44343</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4540,7 +4523,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4548,13 +4531,13 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="11">
         <v>44345</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4577,16 +4560,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4608,535 +4591,535 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5147,7 +5130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5158,7 +5141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5169,7 +5152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5180,7 +5163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5191,7 +5174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5202,7 +5185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5213,7 +5196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5224,7 +5207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5235,7 +5218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5246,7 +5229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5257,7 +5240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5268,7 +5251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5279,7 +5262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5290,7 +5273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5301,7 +5284,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5312,7 +5295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5323,7 +5306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5334,7 +5317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5345,7 +5328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5356,7 +5339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5367,7 +5350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5378,7 +5361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5389,7 +5372,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5400,7 +5383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5411,7 +5394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5422,7 +5405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5433,7 +5416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5444,7 +5427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5455,7 +5438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5466,7 +5449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5477,7 +5460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5488,7 +5471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5499,7 +5482,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5510,7 +5493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5521,7 +5504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5532,7 +5515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5543,7 +5526,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5554,7 +5537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5565,7 +5548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5576,7 +5559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5587,7 +5570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5598,7 +5581,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5609,7 +5592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5620,7 +5603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5631,7 +5614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5642,7 +5625,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5653,7 +5636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5664,7 +5647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5675,7 +5658,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5696,12 +5679,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5735,7 +5718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5752,7 +5735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5769,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5786,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5803,7 +5786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5820,7 +5803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5837,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5854,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5871,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5888,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5905,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5922,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5939,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5956,7 +5939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5973,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5990,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6007,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6031,21 +6014,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6058,8 +6041,14 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6072,8 +6061,14 @@
       <c r="D2" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6086,8 +6081,14 @@
       <c r="D3" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6100,8 +6101,14 @@
       <c r="D4" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6114,8 +6121,14 @@
       <c r="D5" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6128,8 +6141,14 @@
       <c r="D6" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6142,8 +6161,14 @@
       <c r="D7" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6156,8 +6181,14 @@
       <c r="D8" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6170,8 +6201,14 @@
       <c r="D9" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6184,8 +6221,14 @@
       <c r="D10" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6198,8 +6241,14 @@
       <c r="D11" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6212,8 +6261,14 @@
       <c r="D12" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6226,8 +6281,14 @@
       <c r="D13" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6240,8 +6301,14 @@
       <c r="D14" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6254,8 +6321,14 @@
       <c r="D15" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6268,8 +6341,14 @@
       <c r="D16" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6282,8 +6361,14 @@
       <c r="D17" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6296,8 +6381,14 @@
       <c r="D18" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6310,8 +6401,14 @@
       <c r="D19" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6324,8 +6421,14 @@
       <c r="D20" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6338,8 +6441,14 @@
       <c r="D21" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6352,8 +6461,14 @@
       <c r="D22" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6366,8 +6481,14 @@
       <c r="D23" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6380,8 +6501,14 @@
       <c r="D24" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6394,8 +6521,14 @@
       <c r="D25" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6408,8 +6541,14 @@
       <c r="D26" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6422,8 +6561,14 @@
       <c r="D27" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6436,8 +6581,14 @@
       <c r="D28" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6450,8 +6601,14 @@
       <c r="D29" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6464,8 +6621,14 @@
       <c r="D30" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6478,8 +6641,14 @@
       <c r="D31" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6492,8 +6661,14 @@
       <c r="D32" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6506,8 +6681,14 @@
       <c r="D33" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6520,8 +6701,14 @@
       <c r="D34" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6534,8 +6721,14 @@
       <c r="D35" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6548,8 +6741,14 @@
       <c r="D36" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6562,8 +6761,14 @@
       <c r="D37" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6576,8 +6781,14 @@
       <c r="D38" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6590,8 +6801,14 @@
       <c r="D39" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6604,8 +6821,14 @@
       <c r="D40" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6618,8 +6841,14 @@
       <c r="D41" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6632,8 +6861,14 @@
       <c r="D42" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6646,8 +6881,14 @@
       <c r="D43" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6660,8 +6901,14 @@
       <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6674,8 +6921,14 @@
       <c r="D45" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6688,8 +6941,14 @@
       <c r="D46" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6702,8 +6961,14 @@
       <c r="D47" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6716,8 +6981,14 @@
       <c r="D48" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6730,8 +7001,14 @@
       <c r="D49" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6744,8 +7021,14 @@
       <c r="D50" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6758,8 +7041,14 @@
       <c r="D51" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6772,8 +7061,14 @@
       <c r="D52" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6786,8 +7081,14 @@
       <c r="D53" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6800,8 +7101,14 @@
       <c r="D54" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6814,8 +7121,14 @@
       <c r="D55" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6828,8 +7141,14 @@
       <c r="D56" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6842,8 +7161,14 @@
       <c r="D57" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6856,8 +7181,14 @@
       <c r="D58" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6870,8 +7201,14 @@
       <c r="D59" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6884,8 +7221,14 @@
       <c r="D60" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6898,8 +7241,14 @@
       <c r="D61" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6912,8 +7261,14 @@
       <c r="D62" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6926,8 +7281,14 @@
       <c r="D63" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6940,8 +7301,14 @@
       <c r="D64" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6954,8 +7321,14 @@
       <c r="D65" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6968,8 +7341,14 @@
       <c r="D66" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6982,8 +7361,14 @@
       <c r="D67" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6996,8 +7381,14 @@
       <c r="D68" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7010,8 +7401,14 @@
       <c r="D69" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7024,8 +7421,14 @@
       <c r="D70" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7038,8 +7441,14 @@
       <c r="D71" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7052,8 +7461,14 @@
       <c r="D72" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7066,8 +7481,14 @@
       <c r="D73" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7080,8 +7501,14 @@
       <c r="D74" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7094,8 +7521,14 @@
       <c r="D75" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7108,8 +7541,14 @@
       <c r="D76" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7122,8 +7561,14 @@
       <c r="D77" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7136,8 +7581,14 @@
       <c r="D78" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7150,8 +7601,14 @@
       <c r="D79" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7164,8 +7621,14 @@
       <c r="D80" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7178,8 +7641,14 @@
       <c r="D81" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7192,8 +7661,14 @@
       <c r="D82" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7206,8 +7681,14 @@
       <c r="D83" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7220,8 +7701,14 @@
       <c r="D84" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7234,8 +7721,14 @@
       <c r="D85" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7248,8 +7741,14 @@
       <c r="D86" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7262,8 +7761,14 @@
       <c r="D87" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7276,8 +7781,14 @@
       <c r="D88" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7290,8 +7801,14 @@
       <c r="D89" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7304,8 +7821,14 @@
       <c r="D90" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7318,8 +7841,14 @@
       <c r="D91" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7332,8 +7861,14 @@
       <c r="D92" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7346,8 +7881,14 @@
       <c r="D93" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7360,8 +7901,14 @@
       <c r="D94" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7374,8 +7921,14 @@
       <c r="D95" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7388,8 +7941,14 @@
       <c r="D96" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7402,8 +7961,14 @@
       <c r="D97" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7416,8 +7981,14 @@
       <c r="D98" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7430,8 +8001,14 @@
       <c r="D99" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7444,8 +8021,14 @@
       <c r="D100" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7457,6 +8040,12 @@
       </c>
       <c r="D101" s="2" t="s">
         <v>325</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -7466,60 +8055,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2" s="13" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" s="13" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="13" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1056</v>
+      <c r="B5" s="13" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -7529,28 +8110,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L101" sqref="A2:L101"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="50.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
-    <col min="10" max="10" width="17.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="50.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7575,20 +8154,8 @@
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7613,20 +8180,8 @@
       <c r="H2" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7651,20 +8206,8 @@
       <c r="H3" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="I3" s="3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7689,20 +8232,8 @@
       <c r="H4" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7727,20 +8258,8 @@
       <c r="H5" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="I5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7765,20 +8284,8 @@
       <c r="H6" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7803,20 +8310,8 @@
       <c r="H7" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>6</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7841,20 +8336,8 @@
       <c r="H8" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7879,20 +8362,8 @@
       <c r="H9" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7917,20 +8388,8 @@
       <c r="H10" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7955,20 +8414,8 @@
       <c r="H11" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7993,20 +8440,8 @@
       <c r="H12" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8031,20 +8466,8 @@
       <c r="H13" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8069,20 +8492,8 @@
       <c r="H14" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8107,20 +8518,8 @@
       <c r="H15" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8145,20 +8544,8 @@
       <c r="H16" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8183,20 +8570,8 @@
       <c r="H17" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8221,20 +8596,8 @@
       <c r="H18" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -8259,20 +8622,8 @@
       <c r="H19" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>6</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -8297,20 +8648,8 @@
       <c r="H20" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -8335,20 +8674,8 @@
       <c r="H21" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="I21" s="3">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -8373,20 +8700,8 @@
       <c r="H22" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -8411,20 +8726,8 @@
       <c r="H23" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -8449,20 +8752,8 @@
       <c r="H24" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -8487,20 +8778,8 @@
       <c r="H25" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="I25" s="3">
-        <v>4</v>
-      </c>
-      <c r="J25" s="3">
-        <v>6</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -8525,20 +8804,8 @@
       <c r="H26" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8563,20 +8830,8 @@
       <c r="H27" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8601,20 +8856,8 @@
       <c r="H28" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8639,20 +8882,8 @@
       <c r="H29" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="I29" s="3">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8677,20 +8908,8 @@
       <c r="H30" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>5</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8715,20 +8934,8 @@
       <c r="H31" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>6</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -8753,20 +8960,8 @@
       <c r="H32" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -8791,20 +8986,8 @@
       <c r="H33" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="I33" s="3">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -8829,20 +9012,8 @@
       <c r="H34" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>3</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -8867,20 +9038,8 @@
       <c r="H35" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="I35" s="3">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -8905,20 +9064,8 @@
       <c r="H36" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="I36" s="3">
-        <v>3</v>
-      </c>
-      <c r="J36" s="3">
-        <v>5</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -8943,20 +9090,8 @@
       <c r="H37" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="I37" s="3">
-        <v>4</v>
-      </c>
-      <c r="J37" s="3">
-        <v>6</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -8981,20 +9116,8 @@
       <c r="H38" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -9019,20 +9142,8 @@
       <c r="H39" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="I39" s="3">
-        <v>2</v>
-      </c>
-      <c r="J39" s="3">
-        <v>2</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -9057,20 +9168,8 @@
       <c r="H40" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="I40" s="3">
-        <v>3</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -9095,20 +9194,8 @@
       <c r="H41" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="I41" s="3">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -9133,20 +9220,8 @@
       <c r="H42" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -9171,20 +9246,8 @@
       <c r="H43" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="I43" s="3">
-        <v>2</v>
-      </c>
-      <c r="J43" s="3">
-        <v>6</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -9209,20 +9272,8 @@
       <c r="H44" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I44" s="3">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -9247,20 +9298,8 @@
       <c r="H45" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="I45" s="3">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -9285,20 +9324,8 @@
       <c r="H46" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -9323,20 +9350,8 @@
       <c r="H47" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="I47" s="3">
-        <v>2</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -9361,20 +9376,8 @@
       <c r="H48" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="I48" s="3">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -9399,20 +9402,8 @@
       <c r="H49" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="I49" s="3">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -9437,20 +9428,8 @@
       <c r="H50" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -9475,20 +9454,8 @@
       <c r="H51" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="I51" s="3">
-        <v>2</v>
-      </c>
-      <c r="J51" s="3">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L51" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -9513,20 +9480,8 @@
       <c r="H52" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="I52" s="3">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -9551,20 +9506,8 @@
       <c r="H53" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="I53" s="3">
-        <v>4</v>
-      </c>
-      <c r="J53" s="3">
-        <v>4</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L53" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -9589,20 +9532,8 @@
       <c r="H54" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -9627,20 +9558,8 @@
       <c r="H55" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="I55" s="3">
-        <v>2</v>
-      </c>
-      <c r="J55" s="3">
-        <v>6</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L55" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -9665,20 +9584,8 @@
       <c r="H56" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I56" s="3">
-        <v>3</v>
-      </c>
-      <c r="J56" s="3">
-        <v>1</v>
-      </c>
-      <c r="K56" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -9703,20 +9610,8 @@
       <c r="H57" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I57" s="3">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -9741,20 +9636,8 @@
       <c r="H58" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -9779,20 +9662,8 @@
       <c r="H59" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="I59" s="3">
-        <v>2</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -9817,20 +9688,8 @@
       <c r="H60" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="I60" s="3">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -9855,20 +9714,8 @@
       <c r="H61" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="I61" s="3">
-        <v>4</v>
-      </c>
-      <c r="J61" s="3">
-        <v>6</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -9893,20 +9740,8 @@
       <c r="H62" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1</v>
-      </c>
-      <c r="K62" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -9931,20 +9766,8 @@
       <c r="H63" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="I63" s="3">
-        <v>2</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L63" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -9969,20 +9792,8 @@
       <c r="H64" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="I64" s="3">
-        <v>3</v>
-      </c>
-      <c r="J64" s="3">
-        <v>3</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -10007,20 +9818,8 @@
       <c r="H65" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="I65" s="3">
-        <v>4</v>
-      </c>
-      <c r="J65" s="3">
-        <v>4</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L65" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -10045,20 +9844,8 @@
       <c r="H66" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -10083,20 +9870,8 @@
       <c r="H67" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="I67" s="3">
-        <v>2</v>
-      </c>
-      <c r="J67" s="3">
-        <v>6</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L67" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -10121,20 +9896,8 @@
       <c r="H68" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="I68" s="3">
-        <v>3</v>
-      </c>
-      <c r="J68" s="3">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -10159,20 +9922,8 @@
       <c r="H69" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="I69" s="3">
-        <v>4</v>
-      </c>
-      <c r="J69" s="3">
-        <v>2</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L69" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -10197,20 +9948,8 @@
       <c r="H70" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -10235,20 +9974,8 @@
       <c r="H71" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="I71" s="3">
-        <v>2</v>
-      </c>
-      <c r="J71" s="3">
-        <v>4</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -10273,20 +10000,8 @@
       <c r="H72" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="I72" s="3">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -10311,20 +10026,8 @@
       <c r="H73" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="I73" s="3">
-        <v>4</v>
-      </c>
-      <c r="J73" s="3">
-        <v>6</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L73" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -10349,20 +10052,8 @@
       <c r="H74" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="I74" s="3">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3">
-        <v>1</v>
-      </c>
-      <c r="K74" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -10387,20 +10078,8 @@
       <c r="H75" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="I75" s="3">
-        <v>2</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L75" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -10425,20 +10104,8 @@
       <c r="H76" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="I76" s="3">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -10463,20 +10130,8 @@
       <c r="H77" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="I77" s="3">
-        <v>4</v>
-      </c>
-      <c r="J77" s="3">
-        <v>4</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L77" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -10501,20 +10156,8 @@
       <c r="H78" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3">
-        <v>5</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -10539,20 +10182,8 @@
       <c r="H79" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="I79" s="3">
-        <v>2</v>
-      </c>
-      <c r="J79" s="3">
-        <v>6</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L79" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -10577,20 +10208,8 @@
       <c r="H80" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="I80" s="3">
-        <v>3</v>
-      </c>
-      <c r="J80" s="3">
-        <v>1</v>
-      </c>
-      <c r="K80" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -10615,20 +10234,8 @@
       <c r="H81" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="I81" s="3">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -10653,20 +10260,8 @@
       <c r="H82" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="I82" s="3">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3">
-        <v>3</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -10691,20 +10286,8 @@
       <c r="H83" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="I83" s="3">
-        <v>2</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -10729,20 +10312,8 @@
       <c r="H84" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="I84" s="3">
-        <v>3</v>
-      </c>
-      <c r="J84" s="3">
-        <v>5</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -10767,20 +10338,8 @@
       <c r="H85" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="I85" s="3">
-        <v>4</v>
-      </c>
-      <c r="J85" s="3">
-        <v>6</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L85" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -10805,20 +10364,8 @@
       <c r="H86" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3">
-        <v>1</v>
-      </c>
-      <c r="K86" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -10843,20 +10390,8 @@
       <c r="H87" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="I87" s="3">
-        <v>2</v>
-      </c>
-      <c r="J87" s="3">
-        <v>2</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L87" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -10881,20 +10416,8 @@
       <c r="H88" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="I88" s="3">
-        <v>3</v>
-      </c>
-      <c r="J88" s="3">
-        <v>3</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -10919,20 +10442,8 @@
       <c r="H89" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="I89" s="3">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -10957,20 +10468,8 @@
       <c r="H90" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="I90" s="3">
-        <v>1</v>
-      </c>
-      <c r="J90" s="3">
-        <v>5</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -10995,20 +10494,8 @@
       <c r="H91" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I91" s="3">
-        <v>2</v>
-      </c>
-      <c r="J91" s="3">
-        <v>6</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L91" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -11033,20 +10520,8 @@
       <c r="H92" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="I92" s="3">
-        <v>3</v>
-      </c>
-      <c r="J92" s="3">
-        <v>1</v>
-      </c>
-      <c r="K92" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -11071,20 +10546,8 @@
       <c r="H93" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="I93" s="3">
-        <v>4</v>
-      </c>
-      <c r="J93" s="3">
-        <v>2</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L93" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -11109,20 +10572,8 @@
       <c r="H94" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="I94" s="3">
-        <v>1</v>
-      </c>
-      <c r="J94" s="3">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -11147,20 +10598,8 @@
       <c r="H95" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="I95" s="3">
-        <v>2</v>
-      </c>
-      <c r="J95" s="3">
-        <v>4</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L95" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -11185,20 +10624,8 @@
       <c r="H96" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="I96" s="3">
-        <v>3</v>
-      </c>
-      <c r="J96" s="3">
-        <v>5</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -11223,20 +10650,8 @@
       <c r="H97" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="I97" s="3">
-        <v>4</v>
-      </c>
-      <c r="J97" s="3">
-        <v>6</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L97" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -11261,20 +10676,8 @@
       <c r="H98" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="I98" s="3">
-        <v>1</v>
-      </c>
-      <c r="J98" s="3">
-        <v>1</v>
-      </c>
-      <c r="K98" s="3">
-        <v>111345</v>
-      </c>
-      <c r="L98" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -11299,20 +10702,8 @@
       <c r="H99" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="I99" s="3">
-        <v>2</v>
-      </c>
-      <c r="J99" s="3">
-        <v>2</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L99" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -11337,20 +10728,8 @@
       <c r="H100" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="I100" s="3">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -11374,18 +10753,6 @@
       </c>
       <c r="H101" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="I101" s="3">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11398,18 +10765,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E101"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11426,7 +10793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11443,7 +10810,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11460,7 +10827,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11477,7 +10844,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11494,7 +10861,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11511,7 +10878,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11528,7 +10895,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11545,7 +10912,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11562,7 +10929,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11579,7 +10946,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11596,7 +10963,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11613,7 +10980,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11630,7 +10997,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11647,7 +11014,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11664,7 +11031,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11681,7 +11048,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11698,7 +11065,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11715,7 +11082,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11732,7 +11099,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11749,7 +11116,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11766,7 +11133,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11783,7 +11150,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11800,7 +11167,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11817,7 +11184,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11834,7 +11201,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11851,7 +11218,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11868,7 +11235,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11885,7 +11252,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11902,7 +11269,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11919,7 +11286,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11936,7 +11303,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11953,7 +11320,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11970,7 +11337,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11987,7 +11354,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12004,7 +11371,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12021,7 +11388,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12038,7 +11405,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12055,7 +11422,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12072,7 +11439,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12089,7 +11456,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12106,7 +11473,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12123,7 +11490,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12140,7 +11507,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12157,7 +11524,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12174,7 +11541,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12191,7 +11558,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12208,7 +11575,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12225,7 +11592,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12242,7 +11609,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12259,7 +11626,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12276,7 +11643,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12293,7 +11660,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12310,7 +11677,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12327,7 +11694,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12344,7 +11711,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12361,7 +11728,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12378,7 +11745,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12395,7 +11762,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12412,7 +11779,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12429,7 +11796,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12446,7 +11813,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12463,7 +11830,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12480,7 +11847,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12497,7 +11864,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12514,7 +11881,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12531,7 +11898,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12548,7 +11915,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12565,7 +11932,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12582,7 +11949,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12599,7 +11966,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12616,7 +11983,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12633,7 +12000,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12650,7 +12017,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12667,7 +12034,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12684,7 +12051,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12701,7 +12068,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12718,7 +12085,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12735,7 +12102,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12752,7 +12119,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12769,7 +12136,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12786,7 +12153,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12803,7 +12170,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12820,7 +12187,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12837,7 +12204,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12854,7 +12221,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12871,7 +12238,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12888,7 +12255,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12905,7 +12272,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12922,7 +12289,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12939,7 +12306,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12956,7 +12323,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12973,7 +12340,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12990,7 +12357,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13007,7 +12374,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13024,7 +12391,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13041,7 +12408,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13058,7 +12425,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13075,7 +12442,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13092,7 +12459,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13109,7 +12476,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13136,15 +12503,15 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13155,7 +12522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13166,7 +12533,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13177,7 +12544,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13188,7 +12555,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13199,7 +12566,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13210,7 +12577,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13221,7 +12588,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13232,7 +12599,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13243,7 +12610,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13254,7 +12621,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13265,7 +12632,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13276,7 +12643,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13287,7 +12654,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13298,7 +12665,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13309,7 +12676,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13320,7 +12687,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13331,7 +12698,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13342,7 +12709,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13353,7 +12720,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13364,7 +12731,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13375,7 +12742,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13386,7 +12753,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13397,7 +12764,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13408,7 +12775,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13419,7 +12786,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13430,7 +12797,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13441,7 +12808,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13452,7 +12819,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13463,7 +12830,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13474,7 +12841,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13485,7 +12852,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13496,7 +12863,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13507,7 +12874,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13518,7 +12885,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13529,7 +12896,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13540,7 +12907,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13551,7 +12918,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13562,7 +12929,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13573,7 +12940,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13584,7 +12951,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13595,7 +12962,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13606,7 +12973,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13617,7 +12984,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13628,7 +12995,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13639,7 +13006,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13650,7 +13017,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13661,7 +13028,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13672,7 +13039,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13683,7 +13050,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13694,7 +13061,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13715,12 +13082,12 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D101"/>
+      <selection activeCell="F83" sqref="F83:F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13734,7 +13101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13748,7 +13115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13762,7 +13129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13776,7 +13143,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13790,7 +13157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13804,7 +13171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13818,7 +13185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13832,7 +13199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13846,7 +13213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13860,7 +13227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13874,7 +13241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13888,7 +13255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13902,7 +13269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13916,7 +13283,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13930,7 +13297,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13944,7 +13311,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13958,7 +13325,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13972,7 +13339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13986,7 +13353,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14000,7 +13367,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14014,7 +13381,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14028,7 +13395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14042,7 +13409,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14056,7 +13423,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14070,7 +13437,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14084,7 +13451,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14098,7 +13465,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14112,7 +13479,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14126,7 +13493,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14140,7 +13507,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14154,7 +13521,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14168,7 +13535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14182,7 +13549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14196,7 +13563,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14210,7 +13577,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14224,7 +13591,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14238,7 +13605,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14252,7 +13619,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14266,7 +13633,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14280,7 +13647,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14294,7 +13661,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -14308,7 +13675,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14322,7 +13689,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14336,7 +13703,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14350,7 +13717,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -14364,7 +13731,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -14378,7 +13745,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -14392,7 +13759,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -14406,7 +13773,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -14420,7 +13787,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14434,7 +13801,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14448,7 +13815,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14462,7 +13829,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14476,7 +13843,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14490,7 +13857,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14504,7 +13871,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14518,7 +13885,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -14532,7 +13899,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -14546,7 +13913,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14560,7 +13927,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14574,7 +13941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -14588,7 +13955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14602,7 +13969,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14616,7 +13983,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14630,7 +13997,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14644,7 +14011,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14658,7 +14025,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14672,7 +14039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14686,7 +14053,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14700,7 +14067,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14714,7 +14081,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14728,7 +14095,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14742,7 +14109,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14756,7 +14123,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14770,7 +14137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14784,7 +14151,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14798,7 +14165,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14812,7 +14179,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14826,7 +14193,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14840,7 +14207,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14854,7 +14221,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14868,7 +14235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14882,7 +14249,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14896,7 +14263,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14910,7 +14277,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14924,7 +14291,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14938,7 +14305,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14952,7 +14319,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14966,7 +14333,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14980,7 +14347,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14994,7 +14361,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15008,7 +14375,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15022,7 +14389,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15036,7 +14403,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15050,7 +14417,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15064,7 +14431,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15078,7 +14445,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15092,7 +14459,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15106,7 +14473,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15120,7 +14487,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15144,12 +14511,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15163,7 +14530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15177,7 +14544,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15191,7 +14558,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15205,7 +14572,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15219,7 +14586,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15233,7 +14600,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15247,7 +14614,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15261,7 +14628,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15275,7 +14642,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15289,7 +14656,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15303,7 +14670,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15317,7 +14684,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15331,7 +14698,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15345,7 +14712,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15359,7 +14726,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15373,7 +14740,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15387,7 +14754,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15401,7 +14768,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15425,12 +14792,12 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C101"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15441,7 +14808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15452,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15463,7 +14830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15474,7 +14841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15485,7 +14852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15496,7 +14863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15507,7 +14874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15518,7 +14885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15529,7 +14896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15540,7 +14907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15551,7 +14918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15562,7 +14929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15573,7 +14940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15584,7 +14951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15595,7 +14962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15606,7 +14973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15617,7 +14984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15628,7 +14995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15639,7 +15006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15650,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15661,7 +15028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15672,7 +15039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15683,7 +15050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15694,7 +15061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15705,7 +15072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15716,7 +15083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15727,7 +15094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15738,7 +15105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15749,7 +15116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15760,7 +15127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15771,7 +15138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15782,7 +15149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15793,7 +15160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15804,7 +15171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15815,7 +15182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15826,7 +15193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15837,7 +15204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15848,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15859,7 +15226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15870,7 +15237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15881,7 +15248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15892,7 +15259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15903,7 +15270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15914,7 +15281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15925,7 +15292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15936,7 +15303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15947,7 +15314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15958,7 +15325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15969,7 +15336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15980,7 +15347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15991,7 +15358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16002,7 +15369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16013,7 +15380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16024,7 +15391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16035,7 +15402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16046,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16057,7 +15424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16068,7 +15435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16079,7 +15446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16090,7 +15457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16101,7 +15468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16112,7 +15479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16123,7 +15490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16134,7 +15501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16145,7 +15512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16156,7 +15523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16167,7 +15534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16178,7 +15545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16189,7 +15556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -16200,7 +15567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -16211,7 +15578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -16222,7 +15589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -16233,7 +15600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -16244,7 +15611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -16255,7 +15622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -16266,7 +15633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -16277,7 +15644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -16288,7 +15655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -16299,7 +15666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -16310,7 +15677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -16321,7 +15688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -16332,7 +15699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -16343,7 +15710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -16354,7 +15721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -16365,7 +15732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -16376,7 +15743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -16387,7 +15754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -16398,7 +15765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -16409,7 +15776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -16420,7 +15787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -16431,7 +15798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -16442,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -16453,7 +15820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16464,7 +15831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16475,7 +15842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16486,7 +15853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -16497,7 +15864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -16508,7 +15875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -16519,7 +15886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16530,7 +15897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>

--- a/dipl/данные.xlsx
+++ b/dipl/данные.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
-    <sheet name="Contacts" sheetId="13" r:id="rId2"/>
-    <sheet name="ControlQuestion" sheetId="14" r:id="rId3"/>
-    <sheet name="Company" sheetId="3" r:id="rId4"/>
-    <sheet name="Product" sheetId="4" r:id="rId5"/>
-    <sheet name="Supply" sheetId="5" r:id="rId6"/>
-    <sheet name="SupplInfo" sheetId="6" r:id="rId7"/>
-    <sheet name="Sector" sheetId="7" r:id="rId8"/>
-    <sheet name="SectorProduct" sheetId="8" r:id="rId9"/>
-    <sheet name="typepayment" sheetId="9" r:id="rId10"/>
-    <sheet name="order" sheetId="10" r:id="rId11"/>
-    <sheet name="productinfo" sheetId="11" r:id="rId12"/>
-    <sheet name="orderinfo" sheetId="12" r:id="rId13"/>
+    <sheet name="Лист1" sheetId="15" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="13" r:id="rId3"/>
+    <sheet name="ControlQuestion" sheetId="14" r:id="rId4"/>
+    <sheet name="Company" sheetId="3" r:id="rId5"/>
+    <sheet name="Product" sheetId="4" r:id="rId6"/>
+    <sheet name="Supply" sheetId="5" r:id="rId7"/>
+    <sheet name="SupplInfo" sheetId="6" r:id="rId8"/>
+    <sheet name="Sector" sheetId="7" r:id="rId9"/>
+    <sheet name="SectorProduct" sheetId="8" r:id="rId10"/>
+    <sheet name="typepayment" sheetId="9" r:id="rId11"/>
+    <sheet name="order" sheetId="10" r:id="rId12"/>
+    <sheet name="productinfo" sheetId="11" r:id="rId13"/>
+    <sheet name="orderinfo" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1061">
   <si>
     <t>id</t>
   </si>
@@ -3213,6 +3214,12 @@
   </si>
   <si>
     <t>Имя отца</t>
+  </si>
+  <si>
+    <t>тарифф</t>
+  </si>
+  <si>
+    <t>стандарт</t>
   </si>
 </sst>
 </file>
@@ -4234,6 +4241,1132 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4271,7 +5404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4556,7 +5689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -5674,7 +6807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -6013,6 +7146,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -8053,11 +9211,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -8108,7 +9266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -10761,7 +11919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
@@ -12498,7 +13656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -13077,7 +14235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
@@ -14506,7 +15664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -14785,1130 +15943,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="C91">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>